--- a/Biskupice/dok/_SystemInfo_2023.xlsx
+++ b/Biskupice/dok/_SystemInfo_2023.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091DC353-5794-48AB-8D7C-646020CDFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Strefy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,193 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Kondygnacja</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Strefa Dzienna</t>
+  </si>
+  <si>
+    <t>Kuchnia</t>
+  </si>
+  <si>
+    <t>Sala Kinowa</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Strefa Basenowa</t>
+  </si>
+  <si>
+    <t>Wc</t>
+  </si>
+  <si>
+    <t>Patio</t>
+  </si>
+  <si>
+    <t>Szatnia</t>
+  </si>
+  <si>
+    <t>Pralnia</t>
+  </si>
+  <si>
+    <t>Garaż</t>
+  </si>
+  <si>
+    <t>Sypialnia Intymna</t>
+  </si>
+  <si>
+    <t>Łazienka Intymna</t>
+  </si>
+  <si>
+    <t>Garderoba Intymna</t>
+  </si>
+  <si>
+    <t>Łazienka Gościnna</t>
+  </si>
+  <si>
+    <t>Garderoba Gościnna</t>
+  </si>
+  <si>
+    <t>Kuchnia Gościnna</t>
+  </si>
+  <si>
+    <t>Salon Gościnny</t>
+  </si>
+  <si>
+    <t>Sypialnia Gościnna</t>
+  </si>
+  <si>
+    <t>-1 (Piwnica)</t>
+  </si>
+  <si>
+    <t>0 (Parter</t>
+  </si>
+  <si>
+    <t>1 (Piętro)</t>
+  </si>
+  <si>
+    <t>Obwody DIG</t>
+  </si>
+  <si>
+    <t>62,63,64</t>
+  </si>
+  <si>
+    <t>Obwody DIM</t>
+  </si>
+  <si>
+    <t>25,26,27,28</t>
+  </si>
+  <si>
+    <t>17,18,19,24</t>
+  </si>
+  <si>
+    <t>30,31,32,33,34</t>
+  </si>
+  <si>
+    <t>8,9,10</t>
+  </si>
+  <si>
+    <t>Gabinet Parter</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>16,17,18,19,35,37,57,58</t>
+  </si>
+  <si>
+    <t>13,14,15,20,21,23</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>Gabinet Piętro</t>
+  </si>
+  <si>
+    <t>54,55,56</t>
+  </si>
+  <si>
+    <t>49,50,51,52</t>
+  </si>
+  <si>
+    <t>10,11,12</t>
+  </si>
+  <si>
+    <t>46,47,48,57,58</t>
+  </si>
+  <si>
+    <t>Taras Piętro</t>
+  </si>
+  <si>
+    <t>Taras Parter</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Wyjście Audio (AES)</t>
+  </si>
+  <si>
+    <t>BRAK</t>
+  </si>
+  <si>
+    <t>Wyjście Video (DM)</t>
+  </si>
+  <si>
+    <t>Rolety</t>
+  </si>
+  <si>
+    <t>15,16,17</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Oświetlenie All</t>
+  </si>
+  <si>
+    <t>11,13,14,16,17</t>
+  </si>
+  <si>
+    <t>7,8,9,10</t>
+  </si>
+  <si>
+    <t>Kontaktrony (okna)</t>
+  </si>
+  <si>
+    <t>5,6,18</t>
+  </si>
+  <si>
+    <t>AirCondition Zone</t>
+  </si>
+  <si>
+    <t>Korytarz Parter</t>
+  </si>
+  <si>
+    <t>Korytarz Piętro</t>
+  </si>
+  <si>
+    <t>17, 20</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +240,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +530,886 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>24.29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22.23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>53</v>
+      </c>
+      <c r="I17" s="1">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20.21</v>
+      </c>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21.22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="G19" s="1">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42.43</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1">
+        <v>18</v>
+      </c>
+      <c r="H22" s="1">
+        <v>41</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>40</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>25.26</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>23.24</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1">
+        <v>44.45</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <v>21</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G23:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Biskupice/dok/_SystemInfo_2023.xlsx
+++ b/Biskupice/dok/_SystemInfo_2023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091DC353-5794-48AB-8D7C-646020CDFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7C30A-5CA2-4D6E-B72B-9E59247C78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strefy" sheetId="1" r:id="rId1"/>
+    <sheet name="Adresy IP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Nazwa</t>
   </si>
   <si>
-    <t>Kondygnacja</t>
-  </si>
-  <si>
     <t>SPA</t>
   </si>
   <si>
@@ -90,15 +88,6 @@
     <t>Sypialnia Gościnna</t>
   </si>
   <si>
-    <t>-1 (Piwnica)</t>
-  </si>
-  <si>
-    <t>0 (Parter</t>
-  </si>
-  <si>
-    <t>1 (Piętro)</t>
-  </si>
-  <si>
     <t>Obwody DIG</t>
   </si>
   <si>
@@ -205,16 +194,166 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Urządzenie</t>
+  </si>
+  <si>
+    <t>Adres IP</t>
+  </si>
+  <si>
+    <t>Adres MAC</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>DIN-AP2</t>
+  </si>
+  <si>
+    <t>CP4</t>
+  </si>
+  <si>
+    <t>DM-MD-8x8</t>
+  </si>
+  <si>
+    <t>TPMC-4X</t>
+  </si>
+  <si>
+    <t>TSR-310_Salon</t>
+  </si>
+  <si>
+    <t>TSR-310_KinoDomowe</t>
+  </si>
+  <si>
+    <t>TSR-310_Basen</t>
+  </si>
+  <si>
+    <t>TSR-310_Gościnny</t>
+  </si>
+  <si>
+    <t>TSR-310_SypialniaŁazienka</t>
+  </si>
+  <si>
+    <t>SONOS Port</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>10.9.1.1</t>
+  </si>
+  <si>
+    <t>10.9.1.240</t>
+  </si>
+  <si>
+    <t>00-10-7F-17-CA-29</t>
+  </si>
+  <si>
+    <t>10.9.1.241</t>
+  </si>
+  <si>
+    <t>00-10-7F-1A-8D-6D</t>
+  </si>
+  <si>
+    <t>10.9.1.60</t>
+  </si>
+  <si>
+    <t>10.9.1.200</t>
+  </si>
+  <si>
+    <t>CI-KNX_1</t>
+  </si>
+  <si>
+    <t>CI-KNX_2</t>
+  </si>
+  <si>
+    <t>CI-KNX_3</t>
+  </si>
+  <si>
+    <t>WAGO KOTLOWNIA</t>
+  </si>
+  <si>
+    <t>10.9.1.190</t>
+  </si>
+  <si>
+    <t>WAGO GRZESIEK</t>
+  </si>
+  <si>
+    <t>10.9.1.191</t>
+  </si>
+  <si>
+    <t>WAGO PIOTREK</t>
+  </si>
+  <si>
+    <t>10.9.1.192</t>
+  </si>
+  <si>
+    <t>ROUTER KNX/IP</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>00-10-7F-1C-18-F7</t>
+  </si>
+  <si>
+    <t>10.9.1.242</t>
+  </si>
+  <si>
+    <t>10.9.1.231</t>
+  </si>
+  <si>
+    <t>10.9.1.232</t>
+  </si>
+  <si>
+    <t>10.9.1.233</t>
+  </si>
+  <si>
+    <t>10.9.1.61</t>
+  </si>
+  <si>
+    <t>10.9.1.62</t>
+  </si>
+  <si>
+    <t>10.9.1.63</t>
+  </si>
+  <si>
+    <t>10.9.1.64</t>
+  </si>
+  <si>
+    <t>10.9.1.65</t>
+  </si>
+  <si>
+    <t>Sony VPL-XW7000ES</t>
+  </si>
+  <si>
+    <t>Marantz AV-10</t>
+  </si>
+  <si>
+    <t>Apple TV</t>
+  </si>
+  <si>
+    <t>Bose Lifestyle Comfort Console</t>
+  </si>
+  <si>
+    <t>PomGosp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +388,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +689,7 @@
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
@@ -554,37 +699,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -592,34 +734,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -627,28 +766,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -662,23 +798,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1">
         <v>9</v>
@@ -695,20 +830,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14</v>
+      </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1">
         <v>36</v>
@@ -728,9 +862,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
@@ -740,11 +876,8 @@
       <c r="F7" s="1">
         <v>6.7</v>
       </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -761,20 +894,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>4.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>7</v>
@@ -794,23 +926,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1">
         <v>1.2</v>
@@ -819,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -827,32 +958,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1">
         <v>24.29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -860,29 +990,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,32 +1022,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1">
         <v>20.21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -923,32 +1054,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
       <c r="D13" s="1">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1">
         <v>22.23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -956,32 +1086,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -989,9 +1118,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
@@ -999,22 +1130,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,32 +1150,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>25</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,23 +1182,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="G17" s="1">
-        <v>22</v>
-      </c>
       <c r="H17" s="1">
         <v>53</v>
       </c>
@@ -1079,10 +1203,10 @@
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1090,9 +1214,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>23</v>
+      </c>
       <c r="D18" s="1">
         <v>14</v>
       </c>
@@ -1102,11 +1228,8 @@
       <c r="F18" s="1">
         <v>20.21</v>
       </c>
-      <c r="G18" s="1">
-        <v>23</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I18" s="1">
         <v>22</v>
@@ -1123,9 +1246,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="4">
+        <v>21</v>
+      </c>
       <c r="D19" s="1">
         <v>16</v>
       </c>
@@ -1135,14 +1260,11 @@
       <c r="F19" s="1">
         <v>13.14</v>
       </c>
-      <c r="G19" s="1">
-        <v>21</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1">
         <v>6</v>
@@ -1156,32 +1278,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H20" s="1">
         <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1189,32 +1310,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>19</v>
+      </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1">
         <v>42.43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1">
         <v>7</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1222,30 +1342,29 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="1">
-        <v>18</v>
-      </c>
       <c r="H22" s="1">
         <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1253,19 +1372,18 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>17</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>17</v>
-      </c>
       <c r="H23" s="1">
         <v>40</v>
       </c>
@@ -1273,10 +1391,10 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1284,9 +1402,9 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="1">
         <v>6</v>
       </c>
@@ -1294,7 +1412,6 @@
         <v>25.26</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
       <c r="H24" s="1">
         <v>39</v>
       </c>
@@ -1313,9 +1430,9 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="1">
         <v>7</v>
       </c>
@@ -1323,7 +1440,6 @@
         <v>23.24</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
       <c r="H25" s="1">
         <v>44.45</v>
       </c>
@@ -1331,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1342,32 +1458,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
       <c r="D26" s="1">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1">
         <v>11.12</v>
       </c>
-      <c r="G26" s="1">
-        <v>20</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I26" s="1">
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,41 +1490,272 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="4">
+        <v>26</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H27" s="1">
         <v>59.6</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C27"/>
+  <mergeCells count="2">
     <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBB8CE9-FFB7-470B-9A6E-3E6C83A33ECB}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biskupice/dok/_SystemInfo_2023.xlsx
+++ b/Biskupice/dok/_SystemInfo_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FC7570-BA6F-4619-9BAD-48F4E2339111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00469385-2D07-4A46-8DD5-4910B21B16AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>Nazwa</t>
   </si>
@@ -676,7 +676,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,8 +1438,8 @@
       <c r="C27" s="4">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
+      <c r="D27" s="4">
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>36</v>
@@ -1466,9 +1466,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="1">
-        <v>6</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="1">
         <v>25.26</v>
       </c>
@@ -1579,9 +1577,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F25:F29"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Biskupice/dok/_SystemInfo_2023.xlsx
+++ b/Biskupice/dok/_SystemInfo_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00469385-2D07-4A46-8DD5-4910B21B16AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B3225-C892-4303-8897-E1DD92B1E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>Nazwa</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>5,6,18</t>
-  </si>
-  <si>
-    <t>AirCondition Zone</t>
   </si>
   <si>
     <t>Korytarz Parter</t>
@@ -353,18 +350,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,15 +370,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,17 +669,16 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -705,28 +689,25 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -736,72 +717,66 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
-        <v>13</v>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>63.64</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1">
-        <v>21</v>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
         <v>62</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>15</v>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -809,20 +784,17 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <v>23</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -832,29 +804,26 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>22</v>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>20.21</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -864,29 +833,26 @@
       <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>12</v>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -897,28 +863,25 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
+      <c r="G9" s="1">
+        <v>9</v>
       </c>
       <c r="H9" s="1">
         <v>9</v>
       </c>
       <c r="I9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -928,61 +891,55 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
-        <v>10</v>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1">
         <v>36</v>
       </c>
       <c r="G10" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E11" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="F11" s="1">
         <v>6.7</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
       <c r="H11" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -992,29 +949,26 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E12" s="1">
+        <v>4.5</v>
+      </c>
       <c r="F12" s="1">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1024,34 +978,31 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G13" s="1">
+        <v>1.2</v>
+      </c>
       <c r="H13" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="I13" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -1062,23 +1013,20 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1">
         <v>24.29</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1088,29 +1036,26 @@
       <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
-        <v>19</v>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="1">
         <v>22.23</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1121,16 +1066,16 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
         <v>1</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>36</v>
@@ -1138,43 +1083,37 @@
       <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
-        <v>8</v>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1190,23 +1129,20 @@
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="1">
         <v>61</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1234,43 +1170,37 @@
       <c r="I19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1">
         <v>22</v>
       </c>
-      <c r="D21" s="1">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18.190000000000001</v>
       </c>
       <c r="F21" s="1">
-        <v>18.190000000000001</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1">
-        <v>53</v>
-      </c>
-      <c r="H21" s="1">
         <v>19</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1281,28 +1211,25 @@
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>14</v>
+        <v>19.2</v>
       </c>
       <c r="E22" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="F22" s="1">
         <v>20.21</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G22" s="1">
+        <v>22</v>
+      </c>
       <c r="H22" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
-      </c>
-      <c r="J22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1313,28 +1240,25 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>21.22</v>
       </c>
       <c r="E23" s="1">
-        <v>21.22</v>
-      </c>
-      <c r="F23" s="1">
         <v>13.14</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
       </c>
       <c r="I23" s="1">
         <v>6</v>
       </c>
-      <c r="J23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1344,29 +1268,26 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="3">
-        <v>17</v>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="1">
         <v>38</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1376,29 +1297,26 @@
       <c r="C25" s="1">
         <v>19</v>
       </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="1">
+      <c r="F25" s="1">
         <v>42.43</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="1">
         <v>7</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1408,143 +1326,130 @@
       <c r="C26" s="1">
         <v>18</v>
       </c>
-      <c r="D26" s="3">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
         <v>41</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>17</v>
       </c>
-      <c r="D27" s="4">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1">
+        <v>40</v>
+      </c>
       <c r="G27" s="1">
-        <v>40</v>
-      </c>
-      <c r="H27" s="1">
         <v>5</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1">
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
         <v>25.26</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <v>39</v>
+      </c>
       <c r="G28" s="1">
-        <v>39</v>
+        <v>6.8</v>
       </c>
       <c r="H28" s="1">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="I28" s="1">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="1">
+        <v>23.24</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1">
+        <v>44.45</v>
+      </c>
+      <c r="G29" s="1">
         <v>7</v>
       </c>
-      <c r="E29" s="1">
-        <v>23.24</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1">
-        <v>44.45</v>
-      </c>
-      <c r="H29" s="1">
-        <v>7</v>
+      <c r="H29" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>20</v>
       </c>
-      <c r="D30" s="1">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1">
         <v>11.12</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="1">
+      <c r="G30" s="1">
         <v>21</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1560,27 +1465,23 @@
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="1">
         <v>59.6</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F25:F29"/>
+  <mergeCells count="2">
+    <mergeCell ref="E25:E29"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1604,194 +1505,194 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Biskupice/dok/_SystemInfo_2023.xlsx
+++ b/Biskupice/dok/_SystemInfo_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B3225-C892-4303-8897-E1DD92B1E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9046E58E-931F-4161-AD57-EE5C5009CAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
   <si>
     <t>Nazwa</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>1,2,3</t>
-  </si>
-  <si>
-    <t>Oświetlenie All</t>
   </si>
   <si>
     <t>11,13,14,16,17</t>
@@ -658,27 +655,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -686,36 +682,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
+      <c r="C3" s="1">
+        <v>63.64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -723,28 +716,25 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1">
-        <v>63.64</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
+      </c>
+      <c r="C4" s="1">
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -752,8 +742,8 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1">
-        <v>62</v>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>36</v>
@@ -761,22 +751,19 @@
       <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -784,17 +771,14 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1">
-        <v>23</v>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -802,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>20.21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -810,8 +794,8 @@
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1">
-        <v>20.21</v>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>36</v>
@@ -819,69 +803,60 @@
       <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>9</v>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>12</v>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1">
         <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>9</v>
       </c>
       <c r="H9" s="1">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -889,57 +864,51 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="1">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>6.7</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+      <c r="F11" s="1">
+        <v>3.4</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -947,65 +916,59 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>4.5</v>
       </c>
-      <c r="F12" s="1">
-        <v>7</v>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>24.29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
@@ -1013,20 +976,17 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1">
-        <v>24.29</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1034,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>22.23</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
@@ -1042,8 +1002,8 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1">
-        <v>22.23</v>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>36</v>
@@ -1051,77 +1011,68 @@
       <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
+      <c r="C18" s="1">
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -1129,8 +1080,8 @@
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1">
-        <v>61</v>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>36</v>
@@ -1138,19 +1089,16 @@
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
-        <v>25</v>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>36</v>
@@ -1167,98 +1115,86 @@
       <c r="H19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="F21" s="1">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1">
-        <v>19</v>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1">
-        <v>23</v>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="1">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1">
         <v>20.21</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
+      <c r="F22" s="1">
+        <v>19.2</v>
       </c>
       <c r="G22" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="1">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>21.22</v>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E23" s="1">
         <v>13.14</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>30</v>
+      <c r="F23" s="1">
+        <v>21.22</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1266,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>36</v>
@@ -1274,8 +1210,8 @@
       <c r="E24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="1">
-        <v>38</v>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>36</v>
@@ -1283,11 +1219,8 @@
       <c r="H24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1295,28 +1228,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="1">
-        <v>19</v>
+        <v>42.43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1">
-        <v>42.43</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1">
         <v>7</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1324,14 +1254,16 @@
         <v>15</v>
       </c>
       <c r="C26" s="1">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1">
-        <v>41</v>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>36</v>
@@ -1339,117 +1271,108 @@
       <c r="H26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1">
+      <c r="C27" s="1">
         <v>40</v>
       </c>
-      <c r="G27" s="1">
+      <c r="D27" s="1">
         <v>5</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="1">
+        <v>39</v>
+      </c>
       <c r="D28" s="1">
-        <v>25.26</v>
+        <v>6.8</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1">
-        <v>39</v>
+        <v>25.26</v>
       </c>
       <c r="G28" s="1">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="1">
+        <v>44.45</v>
+      </c>
       <c r="D29" s="1">
-        <v>23.24</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1">
-        <v>44.45</v>
-      </c>
-      <c r="G29" s="1">
-        <v>7</v>
+        <v>23.24</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1">
+        <v>21</v>
       </c>
       <c r="E30" s="1">
         <v>11.12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1457,7 +1380,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <v>26</v>
+        <v>59.6</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -1465,8 +1388,8 @@
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="1">
-        <v>59.6</v>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>36</v>
@@ -1474,14 +1397,10 @@
       <c r="H31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="C27:C29"/>
+  <mergeCells count="1">
+    <mergeCell ref="E27:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1505,194 +1424,194 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
